--- a/ConceptMap-R5-EventDefinition-elements-for-R4-EventDefinition.xlsx
+++ b/ConceptMap-R5-EventDefinition-elements-for-R4-EventDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="136">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:32.4704648-06:00</t>
+    <t>2026-02-09T22:05:43.8226733-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,9 +114,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition</t>
-  </si>
-  <si>
     <t>EventDefinition.meta</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.meta</t>
   </si>
   <si>
-    <t>Basic.meta</t>
-  </si>
-  <si>
     <t>EventDefinition.implicitRules</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.implicitRules</t>
   </si>
   <si>
-    <t>Basic.implicitRules</t>
-  </si>
-  <si>
     <t>EventDefinition.language</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.language</t>
   </si>
   <si>
-    <t>Basic.language</t>
-  </si>
-  <si>
     <t>EventDefinition.text</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.text</t>
   </si>
   <si>
-    <t>Basic.text</t>
-  </si>
-  <si>
     <t>EventDefinition.contained</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.contained</t>
   </si>
   <si>
-    <t>Basic.contained</t>
-  </si>
-  <si>
     <t>EventDefinition.url</t>
   </si>
   <si>
@@ -186,9 +168,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:url</t>
-  </si>
-  <si>
     <t>EventDefinition.identifier</t>
   </si>
   <si>
@@ -198,9 +177,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.identifier</t>
   </si>
   <si>
-    <t>Basic.identifier</t>
-  </si>
-  <si>
     <t>EventDefinition.version</t>
   </si>
   <si>
@@ -210,21 +186,12 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.version</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:version</t>
-  </si>
-  <si>
     <t>EventDefinition.versionAlgorithm[x]</t>
   </si>
   <si>
     <t>versionAlgorithm[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition.versionAlgorithm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:versionAlgorithm</t>
-  </si>
-  <si>
     <t>EventDefinition.name</t>
   </si>
   <si>
@@ -234,9 +201,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:name</t>
-  </si>
-  <si>
     <t>EventDefinition.title</t>
   </si>
   <si>
@@ -246,9 +210,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.title</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:title</t>
-  </si>
-  <si>
     <t>EventDefinition.subtitle</t>
   </si>
   <si>
@@ -258,9 +219,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.subtitle</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:subtitle</t>
-  </si>
-  <si>
     <t>EventDefinition.status</t>
   </si>
   <si>
@@ -270,9 +228,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:status</t>
-  </si>
-  <si>
     <t>EventDefinition.experimental</t>
   </si>
   <si>
@@ -282,9 +237,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.experimental</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:experimental</t>
-  </si>
-  <si>
     <t>EventDefinition.subject[x]</t>
   </si>
   <si>
@@ -294,9 +246,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.subject[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:subject</t>
-  </si>
-  <si>
     <t>EventDefinition.date</t>
   </si>
   <si>
@@ -306,9 +255,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.date</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:date</t>
-  </si>
-  <si>
     <t>EventDefinition.publisher</t>
   </si>
   <si>
@@ -318,9 +264,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.publisher</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:publisher</t>
-  </si>
-  <si>
     <t>EventDefinition.contact</t>
   </si>
   <si>
@@ -330,9 +273,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.contact</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:contact</t>
-  </si>
-  <si>
     <t>EventDefinition.description</t>
   </si>
   <si>
@@ -342,9 +282,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:description</t>
-  </si>
-  <si>
     <t>EventDefinition.useContext</t>
   </si>
   <si>
@@ -354,9 +291,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.useContext</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:useContext</t>
-  </si>
-  <si>
     <t>EventDefinition.jurisdiction</t>
   </si>
   <si>
@@ -366,9 +300,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.jurisdiction</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:jurisdiction</t>
-  </si>
-  <si>
     <t>EventDefinition.purpose</t>
   </si>
   <si>
@@ -378,9 +309,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.purpose</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:purpose</t>
-  </si>
-  <si>
     <t>EventDefinition.usage</t>
   </si>
   <si>
@@ -390,9 +318,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.usage</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:usage</t>
-  </si>
-  <si>
     <t>EventDefinition.copyright</t>
   </si>
   <si>
@@ -402,21 +327,12 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.copyright</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:copyright</t>
-  </si>
-  <si>
     <t>EventDefinition.copyrightLabel</t>
   </si>
   <si>
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition.copyrightLabel</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:copyrightLabel</t>
-  </si>
-  <si>
     <t>EventDefinition.approvalDate</t>
   </si>
   <si>
@@ -426,9 +342,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.approvalDate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:approvalDate</t>
-  </si>
-  <si>
     <t>EventDefinition.lastReviewDate</t>
   </si>
   <si>
@@ -438,9 +351,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.lastReviewDate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:lastReviewDate</t>
-  </si>
-  <si>
     <t>EventDefinition.effectivePeriod</t>
   </si>
   <si>
@@ -450,9 +360,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.effectivePeriod</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:effectivePeriod</t>
-  </si>
-  <si>
     <t>EventDefinition.topic</t>
   </si>
   <si>
@@ -462,9 +369,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.topic</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:topic</t>
-  </si>
-  <si>
     <t>EventDefinition.author</t>
   </si>
   <si>
@@ -474,9 +378,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.author</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:author</t>
-  </si>
-  <si>
     <t>EventDefinition.editor</t>
   </si>
   <si>
@@ -486,9 +387,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.editor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:editor</t>
-  </si>
-  <si>
     <t>EventDefinition.reviewer</t>
   </si>
   <si>
@@ -498,9 +396,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.reviewer</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:reviewer</t>
-  </si>
-  <si>
     <t>EventDefinition.endorser</t>
   </si>
   <si>
@@ -510,9 +405,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.endorser</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:endorser</t>
-  </si>
-  <si>
     <t>EventDefinition.relatedArtifact</t>
   </si>
   <si>
@@ -522,9 +414,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.relatedArtifact</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:relatedArtifact</t>
-  </si>
-  <si>
     <t>EventDefinition.trigger</t>
   </si>
   <si>
@@ -532,9 +421,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/EventDefinition#EventDefinition.trigger</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition:trigger</t>
   </si>
 </sst>
 </file>
@@ -791,7 +677,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -844,926 +730,458 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="E74" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-EventDefinition-elements-for-R4-EventDefinition.xlsx
+++ b/ConceptMap-R5-EventDefinition-elements-for-R4-EventDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.8226733-06:00</t>
+    <t>2026-02-17T14:42:27.2233264-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
